--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed5/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.118499999999997</v>
+        <v>-9.006899999999996</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.494099999999998</v>
+        <v>-7.775799999999993</v>
       </c>
     </row>
     <row r="10">
@@ -583,10 +583,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.6696</v>
+        <v>-21.5366</v>
       </c>
       <c r="B11" t="n">
-        <v>5.7496</v>
+        <v>5.833900000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.35479999999999</v>
+        <v>-21.3993</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.683799999999996</v>
+        <v>-8.808199999999996</v>
       </c>
     </row>
     <row r="14">
@@ -634,12 +634,12 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.237699999999998</v>
+        <v>-8.3935</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.6349</v>
+        <v>-21.7258</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.215299999999999</v>
+        <v>-7.933200000000002</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.393499999999994</v>
+        <v>-8.161299999999994</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.0562</v>
+        <v>-7.983199999999999</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.755999999999997</v>
+        <v>8.541899999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.986999999999997</v>
+        <v>-7.980599999999996</v>
       </c>
     </row>
     <row r="25">
@@ -802,12 +802,12 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.875200000000001</v>
+        <v>-8.397399999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.88179999999999</v>
+        <v>-21.9426</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.02760000000001</v>
+        <v>-21.8268</v>
       </c>
       <c r="B28" t="n">
-        <v>6.018300000000002</v>
+        <v>6.066400000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.67160000000001</v>
+        <v>-21.77960000000001</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.05269999999998</v>
+        <v>-21.04829999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>5.208299999999999</v>
+        <v>5.4677</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.571300000000008</v>
+        <v>9.598700000000003</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.11369999999998</v>
+        <v>-21.13209999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>5.1888</v>
+        <v>5.064899999999998</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.220399999999998</v>
+        <v>8.945200000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.3739</v>
+        <v>-20.1129</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.636099999999998</v>
+        <v>-7.732099999999996</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.5146</v>
+        <v>-8.569399999999996</v>
       </c>
     </row>
     <row r="42">
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.35349999999999</v>
+        <v>10.232</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.07640000000001</v>
+        <v>-22.01710000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>4.8663</v>
+        <v>4.662899999999999</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.095800000000004</v>
+        <v>-8.179800000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.92600000000001</v>
+        <v>-21.8087</v>
       </c>
       <c r="B54" t="n">
-        <v>5.512999999999997</v>
+        <v>5.832599999999996</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.7647</v>
+        <v>-21.76760000000002</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.9867</v>
+        <v>-21.82139999999999</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.987699999999998</v>
+        <v>-8.948199999999998</v>
       </c>
     </row>
     <row r="57">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.59309999999996</v>
+        <v>-21.55519999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.72289999999998</v>
+        <v>-21.72309999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1432,12 +1432,12 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.152800000000002</v>
+        <v>-7.307299999999997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.9728</v>
+        <v>-21.9134</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1446,12 +1446,12 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.468900000000004</v>
+        <v>-7.426500000000005</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.6133</v>
+        <v>-19.262</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1524,13 +1524,13 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.981999999999994</v>
+        <v>8.615399999999996</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.582400000000005</v>
+        <v>-8.394100000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.960400000000003</v>
+        <v>9.734999999999998</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9293</v>
+        <v>-21.88529999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.260100000000001</v>
+        <v>-8.4735</v>
       </c>
     </row>
     <row r="84">
@@ -1628,12 +1628,12 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-9.395899999999999</v>
+        <v>-9.066499999999996</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.83610000000001</v>
+        <v>-21.98110000000002</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.692300000000007</v>
+        <v>-8.5221</v>
       </c>
     </row>
     <row r="87">
@@ -1698,12 +1698,12 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.017399999999996</v>
+        <v>-6.776499999999996</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.64249999999999</v>
+        <v>-20.71499999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.56810000000001</v>
+        <v>-21.54830000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.407599999999995</v>
+        <v>-8.821899999999996</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.227599999999998</v>
+        <v>6.605399999999999</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.84729999999999</v>
+        <v>-21.7917</v>
       </c>
       <c r="B99" t="n">
-        <v>6.167399999999998</v>
+        <v>6.488499999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.647</v>
+        <v>4.3519</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.754499999999998</v>
+        <v>4.9954</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.3513</v>
+        <v>-8.431499999999998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.4357</v>
+        <v>-21.4462</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-20.14139999999997</v>
+        <v>-19.92609999999998</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
